--- a/outputcsv/forprint.xlsx
+++ b/outputcsv/forprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SHUJI/Documents/2019/NCGM/outputcsv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD03441-ADD0-AA43-81D9-3B619041903C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C46EE-28AF-544A-AE8A-13880606F349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{4E3679EC-9097-FE48-ADD1-CB604972637E}"/>
   </bookViews>
@@ -60,18 +60,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Iwata(2019)の手法, 移動可能セルは縦横それぞれ3セル先 (λ=3.0, hidden layer=40)</t>
-    <rPh sb="12" eb="14">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>サキ</t>
+    <t>表3</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,13 +141,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,59 +467,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E026B4CB-220F-2C4D-8663-B8CAB11EE0D7}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="29" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="4.7109375" customWidth="1"/>
     <col min="31" max="31" width="6.7109375" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" customWidth="1"/>
-    <col min="33" max="33" width="9" customWidth="1"/>
+    <col min="32" max="33" width="4.7109375" customWidth="1"/>
     <col min="34" max="34" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1"/>
-    <row r="2" spans="1:32" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:33" ht="15" customHeight="1"/>
+    <row r="2" spans="1:33" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1"/>
-    <row r="4" spans="1:32" ht="15" customHeight="1">
+    <row r="3" spans="1:33" ht="15" customHeight="1"/>
+    <row r="4" spans="1:33" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -611,2928 +609,3045 @@
       <c r="AE4" t="s">
         <v>2</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1">
+    <row r="5" spans="1:33" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>307.73124720044001</v>
+        <v>193.15197943912599</v>
       </c>
       <c r="C5" s="1">
-        <v>5.3242365681930304</v>
+        <v>56.540196215697598</v>
       </c>
       <c r="D5" s="1">
-        <v>19.260503232945702</v>
+        <v>160.29109091008601</v>
       </c>
       <c r="E5" s="1">
-        <v>7.0591727687942498</v>
+        <v>52.373173232239701</v>
       </c>
       <c r="F5" s="1">
-        <v>5.3209795868612897</v>
+        <v>24.7845603341828</v>
       </c>
       <c r="G5" s="1">
-        <v>36.007141303839902</v>
+        <v>152.97195405536701</v>
       </c>
       <c r="H5" s="1">
-        <v>43.054937319467903</v>
+        <v>45.964839680996398</v>
       </c>
       <c r="I5" s="1">
-        <v>14.4697770643354</v>
+        <v>24.090991515258501</v>
       </c>
       <c r="J5" s="1">
-        <v>30.4482563963847</v>
+        <v>13.173586128260499</v>
       </c>
       <c r="K5" s="1">
-        <v>83.482841352085202</v>
+        <v>3.4349977354596</v>
       </c>
       <c r="L5" s="1">
-        <v>163.01056071140101</v>
+        <v>0.33721860185095498</v>
       </c>
       <c r="M5" s="1">
-        <v>37.931987222131902</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0.85358218196715796</v>
+        <v>12.8073283429186</v>
       </c>
       <c r="O5" s="1">
-        <v>2.3838906685471901</v>
+        <v>5.0984638113083598</v>
       </c>
       <c r="P5" s="1">
-        <v>0.61151505065964695</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.2816766093379597</v>
+        <v>1.88068633820515</v>
       </c>
       <c r="R5" s="1">
-        <v>16.5820724071834</v>
+        <v>2.38669023046296</v>
       </c>
       <c r="S5" s="1">
-        <v>3.0014498435468902</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>3.7933028677879901</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>17.433687324649298</v>
+        <v>0.648167811096239</v>
       </c>
       <c r="V5" s="1">
-        <v>81.812885691938504</v>
+        <v>0.18194560139102001</v>
       </c>
       <c r="W5" s="1">
-        <v>3.275299336637</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>91.287665567769295</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1.6108428385181099</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.44889103244164902</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.84472356427248196</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1.0335282678592499</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.58255072374847305</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
         <f>SUM(B5:AC5)</f>
-        <v>984.93920470374462</v>
+        <v>750.11786998390721</v>
       </c>
       <c r="AE5" s="1">
         <v>740</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="4">
         <f>AE5-AD5</f>
-        <v>-244.93920470374462</v>
+        <v>-10.117869983907212</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>ABS(AF5)</f>
+        <v>10.117869983907212</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1">
+    <row r="6" spans="1:33" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9306686810513103</v>
+        <v>43.690615200649098</v>
       </c>
       <c r="C6" s="1">
-        <v>1032.0365077971701</v>
+        <v>737.64907428000595</v>
       </c>
       <c r="D6" s="1">
-        <v>166.88070655531999</v>
+        <v>418.09262547922401</v>
       </c>
       <c r="E6" s="1">
-        <v>82.2163926939199</v>
+        <v>270.80336519019602</v>
       </c>
       <c r="F6" s="1">
-        <v>70.867412317024602</v>
+        <v>116.226675184481</v>
       </c>
       <c r="G6" s="1">
-        <v>25.565963335233398</v>
+        <v>67.733913072405997</v>
       </c>
       <c r="H6" s="1">
-        <v>4.88736392714969</v>
+        <v>8.0100524680607492</v>
       </c>
       <c r="I6" s="1">
-        <v>83.902858875153896</v>
+        <v>38.985505921777097</v>
       </c>
       <c r="J6" s="1">
-        <v>18.356777780979002</v>
+        <v>6.1649307056127798</v>
       </c>
       <c r="K6" s="1">
-        <v>1.1359978738335501</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0.179470196761253</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>1.6425907780678599</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>5.0425721783884496</v>
+        <v>21.187936728805099</v>
       </c>
       <c r="O6" s="1">
-        <v>20.4095178780432</v>
+        <v>21.062739677110802</v>
       </c>
       <c r="P6" s="1">
-        <v>2.56029098704653</v>
+        <v>1.8504521680307899</v>
       </c>
       <c r="Q6" s="1">
-        <v>56.904863215579297</v>
+        <v>8.2522156536481095</v>
       </c>
       <c r="R6" s="1">
-        <v>73.416289137045794</v>
+        <v>5.0064915704071096</v>
       </c>
       <c r="S6" s="1">
-        <v>11.376277358541699</v>
+        <v>2.5806085840923898</v>
       </c>
       <c r="T6" s="1">
-        <v>16.0657092769641</v>
+        <v>1.15555795195101</v>
       </c>
       <c r="U6" s="1">
-        <v>3.1090808005101001</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1.1532861851002301</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>3.66038387977185</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0.98778942030495498</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1.14047240591554</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.23829565796593499</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.69517853932087903</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.46604532244926899</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.84668199332782901</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
         <f>SUM(B6:AC6)</f>
-        <v>1694.6754450479402</v>
+        <v>1768.4527598364584</v>
       </c>
       <c r="AE6" s="1">
         <v>1805</v>
       </c>
-      <c r="AF6" s="5">
-        <f t="shared" ref="AF6:AF32" si="0">AE6-AD6</f>
-        <v>110.32455495205977</v>
+      <c r="AF6" s="4">
+        <f t="shared" ref="AF6:AH32" si="0">AE6-AD6</f>
+        <v>36.547240163541574</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" ref="AG6:AG33" si="1">ABS(AF6)</f>
+        <v>36.547240163541574</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1">
+    <row r="7" spans="1:33" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>69.803309174516102</v>
+        <v>178.091243946525</v>
       </c>
       <c r="C7" s="1">
-        <v>141.61905429851501</v>
+        <v>337.55001903724599</v>
       </c>
       <c r="D7" s="1">
-        <v>1910.87668749567</v>
+        <v>1058.26763027271</v>
       </c>
       <c r="E7" s="1">
-        <v>53.587122492004902</v>
+        <v>210.714190668979</v>
       </c>
       <c r="F7" s="1">
-        <v>86.871640260274205</v>
+        <v>213.38442478526699</v>
       </c>
       <c r="G7" s="1">
-        <v>174.01066444124501</v>
+        <v>424.30377883161202</v>
       </c>
       <c r="H7" s="1">
-        <v>12.3983522978326</v>
+        <v>63.254996183409098</v>
       </c>
       <c r="I7" s="1">
-        <v>116.56882874957699</v>
+        <v>211.54733152751299</v>
       </c>
       <c r="J7" s="1">
-        <v>57.801103791602102</v>
+        <v>51.946289595716003</v>
       </c>
       <c r="K7" s="1">
-        <v>10.7465910679907</v>
+        <v>5.8930568032944102</v>
       </c>
       <c r="L7" s="1">
-        <v>0.34462848951202901</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>-0.29137349546325902</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>6.6985813924631099</v>
+        <v>29.8793448641647</v>
       </c>
       <c r="O7" s="1">
-        <v>12.521119935121799</v>
+        <v>29.596344954793299</v>
       </c>
       <c r="P7" s="1">
-        <v>3.1164613320459198</v>
+        <v>3.1915653872472101</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.571024839584702</v>
+        <v>24.5432973746389</v>
       </c>
       <c r="R7" s="1">
-        <v>113.444233705304</v>
+        <v>30.683212342392</v>
       </c>
       <c r="S7" s="1">
-        <v>5.4859833943287697</v>
+        <v>4.2243120159333696</v>
       </c>
       <c r="T7" s="1">
-        <v>9.1843289290655399</v>
+        <v>3.1745126197851099</v>
       </c>
       <c r="U7" s="1">
-        <v>27.8248835999756</v>
+        <v>2.3653946333243399</v>
       </c>
       <c r="V7" s="1">
-        <v>0.91970056134463996</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>12.8846484963953</v>
+        <v>1.53753458939267</v>
       </c>
       <c r="X7" s="1">
-        <v>1.22279546272857</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.529729860735763</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.26286651622259599</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.0561515456800001</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.97149746788388303</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.27905473721199298</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" ref="AD7:AD32" si="1">SUM(B7:AC7)</f>
-        <v>2855.3096708393687</v>
+        <f t="shared" ref="AD7:AD32" si="2">SUM(B7:AC7)</f>
+        <v>2884.1484804339425</v>
       </c>
       <c r="AE7" s="1">
         <v>2942</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="4">
         <f t="shared" si="0"/>
-        <v>86.690329160631336</v>
+        <v>57.851519566057505</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="1"/>
+        <v>57.851519566057505</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15" customHeight="1">
+    <row r="8" spans="1:33" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>46.328310831099003</v>
+        <v>18.208938247150201</v>
       </c>
       <c r="C8" s="1">
-        <v>191.074610143293</v>
+        <v>395.912711528643</v>
       </c>
       <c r="D8" s="1">
-        <v>99.690767037881798</v>
+        <v>259.59788789170398</v>
       </c>
       <c r="E8" s="1">
-        <v>1650.65582138217</v>
+        <v>1027.52184846931</v>
       </c>
       <c r="F8" s="1">
-        <v>96.081859283281304</v>
+        <v>218.85593941503501</v>
       </c>
       <c r="G8" s="1">
-        <v>23.433089802643501</v>
+        <v>48.292815165561798</v>
       </c>
       <c r="H8" s="1">
-        <v>4.0267824160487597</v>
+        <v>6.7024982867171801</v>
       </c>
       <c r="I8" s="1">
-        <v>15.6390251524611</v>
+        <v>48.840682150107099</v>
       </c>
       <c r="J8" s="1">
-        <v>4.48520595408828</v>
+        <v>6.8245746340776803</v>
       </c>
       <c r="K8" s="1">
-        <v>0.76629828414655499</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0.33507092505469099</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0.114540331141047</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>74.781893353228</v>
+        <v>287.03382206919099</v>
       </c>
       <c r="O8" s="1">
-        <v>62.164758269038501</v>
+        <v>136.201469954418</v>
       </c>
       <c r="P8" s="1">
-        <v>26.4805565289507</v>
+        <v>34.739755701992003</v>
       </c>
       <c r="Q8" s="1">
-        <v>24.791164213464501</v>
+        <v>22.098531999544299</v>
       </c>
       <c r="R8" s="1">
-        <v>9.5595969370057396</v>
+        <v>9.0971768482762307</v>
       </c>
       <c r="S8" s="1">
-        <v>75.107277218495</v>
+        <v>18.194802254366898</v>
       </c>
       <c r="T8" s="1">
-        <v>20.605825618177299</v>
+        <v>3.5883385583821599</v>
       </c>
       <c r="U8" s="1">
-        <v>0.41029805406790498</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>-0.196326112250157</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0.57431492953138896</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0.36684474126424399</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>6.3698293514592397</v>
+        <v>3.0227004407076201</v>
       </c>
       <c r="Z8" s="1">
-        <v>16.056969850601899</v>
+        <v>2.2215957688283301</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.168685374245999</v>
+        <v>1.7046524535908401</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.851740547220039</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1.44900053015054</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="1"/>
-        <v>2471.1738109479593</v>
+        <f t="shared" si="2"/>
+        <v>2548.6607418376029</v>
       </c>
       <c r="AE8" s="1">
         <v>2601</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="4">
         <f t="shared" si="0"/>
-        <v>129.82618905204072</v>
+        <v>52.339258162397073</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="1"/>
+        <v>52.339258162397073</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1">
+    <row r="9" spans="1:33" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>8.8059296247764198</v>
+        <v>12.3668367926828</v>
       </c>
       <c r="C9" s="1">
-        <v>64.395222280844493</v>
+        <v>66.928115752333099</v>
       </c>
       <c r="D9" s="1">
-        <v>128.75072663992501</v>
+        <v>257.644365377013</v>
       </c>
       <c r="E9" s="1">
-        <v>133.41365348412299</v>
+        <v>270.41482369919999</v>
       </c>
       <c r="F9" s="1">
-        <v>1048.94268894435</v>
+        <v>404.29802432717901</v>
       </c>
       <c r="G9" s="1">
-        <v>89.847748627499499</v>
+        <v>127.162900768469</v>
       </c>
       <c r="H9" s="1">
-        <v>15.2192787579263</v>
+        <v>22.561973030357098</v>
       </c>
       <c r="I9" s="1">
-        <v>88.633907677227896</v>
+        <v>224.81047078948501</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3247343909738</v>
+        <v>35.751024334540098</v>
       </c>
       <c r="K9" s="1">
-        <v>3.5159649505998298</v>
+        <v>3.4451336512386499</v>
       </c>
       <c r="L9" s="1">
-        <v>0.43781472926642201</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0.99624136956816201</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>30.771752136873499</v>
+        <v>97.512301608427293</v>
       </c>
       <c r="O9" s="1">
-        <v>57.319987292023498</v>
+        <v>165.289910475363</v>
       </c>
       <c r="P9" s="1">
-        <v>10.2490765139913</v>
+        <v>21.053375537563301</v>
       </c>
       <c r="Q9" s="1">
-        <v>38.317139120984301</v>
+        <v>88.560537329094501</v>
       </c>
       <c r="R9" s="1">
-        <v>29.7730828171923</v>
+        <v>51.838767304238097</v>
       </c>
       <c r="S9" s="1">
-        <v>26.5174770613337</v>
+        <v>34.3059624298443</v>
       </c>
       <c r="T9" s="1">
-        <v>41.576209511889402</v>
+        <v>14.8067403033135</v>
       </c>
       <c r="U9" s="1">
-        <v>2.7284327382978502</v>
+        <v>2.4262473097434398</v>
       </c>
       <c r="V9" s="1">
-        <v>3.04673682501892</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>10.0097759109882</v>
+        <v>3.2126687842060502</v>
       </c>
       <c r="X9" s="1">
-        <v>1.0208409627841899</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>4.8365928293704696</v>
+        <v>1.25165053117353</v>
       </c>
       <c r="Z9" s="1">
-        <v>7.0101340155537297</v>
+        <v>1.5537599342225099</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.9678510803316</v>
+        <v>2.9562023716484598</v>
       </c>
       <c r="AB9" s="1">
-        <v>1.6211057678335701</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>8.3197781847665109</v>
+        <v>1.2627693290990101</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="1"/>
-        <v>1877.3698842463145</v>
+        <f t="shared" si="2"/>
+        <v>1911.4145617704348</v>
       </c>
       <c r="AE9" s="1">
         <v>1951</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" s="4">
         <f t="shared" si="0"/>
-        <v>73.630115753685459</v>
+        <v>39.58543822956517</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="1"/>
+        <v>39.58543822956517</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" customHeight="1">
+    <row r="10" spans="1:33" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>82.951473739397798</v>
+        <v>179.53650861354299</v>
       </c>
       <c r="C10" s="1">
-        <v>4.44029567355126</v>
+        <v>40.505487338334397</v>
       </c>
       <c r="D10" s="1">
-        <v>126.86331788466499</v>
+        <v>469.63871547183197</v>
       </c>
       <c r="E10" s="1">
-        <v>22.106097403033399</v>
+        <v>116.443901359949</v>
       </c>
       <c r="F10" s="1">
-        <v>60.057215382682202</v>
+        <v>184.317768081184</v>
       </c>
       <c r="G10" s="1">
-        <v>1867.2121194036299</v>
+        <v>896.44833802560197</v>
       </c>
       <c r="H10" s="1">
-        <v>74.274182988784105</v>
+        <v>249.295199429462</v>
       </c>
       <c r="I10" s="1">
-        <v>121.788809485412</v>
+        <v>349.03748399813099</v>
       </c>
       <c r="J10" s="1">
-        <v>97.887939116647502</v>
+        <v>177.56838800944399</v>
       </c>
       <c r="K10" s="1">
-        <v>26.673903043337699</v>
+        <v>29.890567702453598</v>
       </c>
       <c r="L10" s="1">
-        <v>7.5407272303239496</v>
+        <v>2.4039704882820199</v>
       </c>
       <c r="M10" s="1">
-        <v>0.38740152353502599</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>16.799175759070199</v>
+        <v>63.8814931744284</v>
       </c>
       <c r="O10" s="1">
-        <v>15.298283790560699</v>
+        <v>47.735849959431597</v>
       </c>
       <c r="P10" s="1">
-        <v>3.6026843572305198</v>
+        <v>9.1762158989564604</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.211599140342599</v>
+        <v>31.877581364601799</v>
       </c>
       <c r="R10" s="1">
-        <v>59.031710650758299</v>
+        <v>58.385412432413098</v>
       </c>
       <c r="S10" s="1">
-        <v>9.6676603500939304</v>
+        <v>6.8894021918495403</v>
       </c>
       <c r="T10" s="1">
-        <v>7.8192831181089701</v>
+        <v>3.7455430603578899</v>
       </c>
       <c r="U10" s="1">
-        <v>47.839752487460899</v>
+        <v>9.0997035900648395</v>
       </c>
       <c r="V10" s="1">
-        <v>31.835269041568498</v>
+        <v>2.2151665475639799</v>
       </c>
       <c r="W10" s="1">
-        <v>10.077283794560101</v>
+        <v>2.8177384328929498</v>
       </c>
       <c r="X10" s="1">
-        <v>1.01324268070826</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>2.57727786761399</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.53377930360469805</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.53113268656529</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.35043681673208898</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.30494903719556099</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="1"/>
-        <v>2718.6770037571746</v>
+        <f t="shared" si="2"/>
+        <v>2930.9104351707765</v>
       </c>
       <c r="AE10" s="1">
         <v>2989</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" s="4">
         <f t="shared" si="0"/>
-        <v>270.32299624282541</v>
+        <v>58.089564829223491</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="1"/>
+        <v>58.089564829223491</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1">
+    <row r="11" spans="1:33" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>17.779184303948899</v>
+        <v>78.718985772457401</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1188754519801101</v>
+        <v>1.3350393080632901</v>
       </c>
       <c r="D11" s="1">
-        <v>8.1935833481919005</v>
+        <v>35.441745859164499</v>
       </c>
       <c r="E11" s="1">
-        <v>2.1726198251856101</v>
+        <v>6.3858307347227097</v>
       </c>
       <c r="F11" s="1">
-        <v>30.714397674370002</v>
+        <v>30.856762292825699</v>
       </c>
       <c r="G11" s="1">
-        <v>104.802130819868</v>
+        <v>379.67260439575</v>
       </c>
       <c r="H11" s="1">
-        <v>1108.5506819137399</v>
+        <v>633.38957037628904</v>
       </c>
       <c r="I11" s="1">
-        <v>106.331190574632</v>
+        <v>176.55030164207</v>
       </c>
       <c r="J11" s="1">
-        <v>115.596648603445</v>
+        <v>262.80235371219499</v>
       </c>
       <c r="K11" s="1">
-        <v>89.648666054395093</v>
+        <v>127.22611262221101</v>
       </c>
       <c r="L11" s="1">
-        <v>14.438878733869</v>
+        <v>18.254649581917501</v>
       </c>
       <c r="M11" s="1">
-        <v>4.3915035367673498</v>
+        <v>2.09770316652568</v>
       </c>
       <c r="N11" s="1">
-        <v>6.8363861058299298</v>
+        <v>9.2799852712495294</v>
       </c>
       <c r="O11" s="1">
-        <v>41.0676625538336</v>
+        <v>18.542544800046802</v>
       </c>
       <c r="P11" s="1">
-        <v>4.9848778372695097</v>
+        <v>4.9711725026270601</v>
       </c>
       <c r="Q11" s="1">
-        <v>27.256306677904899</v>
+        <v>18.0084596051334</v>
       </c>
       <c r="R11" s="1">
-        <v>69.475889293278101</v>
+        <v>43.406323439719301</v>
       </c>
       <c r="S11" s="1">
-        <v>12.769017425722399</v>
+        <v>4.1186862316067296</v>
       </c>
       <c r="T11" s="1">
-        <v>22.659561916596498</v>
+        <v>2.3862112609699602</v>
       </c>
       <c r="U11" s="1">
-        <v>39.660329411037502</v>
+        <v>16.942552865516198</v>
       </c>
       <c r="V11" s="1">
-        <v>68.548608425327402</v>
+        <v>11.626554561075</v>
       </c>
       <c r="W11" s="1">
-        <v>16.1792680737748</v>
+        <v>2.7414739291646102</v>
       </c>
       <c r="X11" s="1">
-        <v>32.381864542217102</v>
+        <v>2.3492567276976799</v>
       </c>
       <c r="Y11" s="1">
-        <v>2.35020879535859</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.75586802584927004</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.12398038612328</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.41818551711436902</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1.6600098826343199</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="1"/>
-        <v>1952.8663857102645</v>
+        <f t="shared" si="2"/>
+        <v>1887.1048806589981</v>
       </c>
       <c r="AE11" s="1">
         <v>1922</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" s="4">
         <f t="shared" si="0"/>
-        <v>-30.866385710264467</v>
+        <v>34.895119341001873</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="1"/>
+        <v>34.895119341001873</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15" customHeight="1">
+    <row r="12" spans="1:33" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>1.4591579362904199</v>
+        <v>11.0400772690114</v>
       </c>
       <c r="C12" s="1">
-        <v>20.845962333685399</v>
+        <v>6.3934824005389297</v>
       </c>
       <c r="D12" s="1">
-        <v>67.958767323550006</v>
+        <v>138.659804088431</v>
       </c>
       <c r="E12" s="1">
-        <v>15.3387720641041</v>
+        <v>34.0067326107743</v>
       </c>
       <c r="F12" s="1">
-        <v>104.474712338552</v>
+        <v>267.75155719326602</v>
       </c>
       <c r="G12" s="1">
-        <v>128.41392040859299</v>
+        <v>368.068209987552</v>
       </c>
       <c r="H12" s="1">
-        <v>85.365663257814205</v>
+        <v>165.49081498376901</v>
       </c>
       <c r="I12" s="1">
-        <v>2228.3493920534102</v>
+        <v>1033.80468787418</v>
       </c>
       <c r="J12" s="1">
-        <v>117.480492666576</v>
+        <v>402.54245172102901</v>
       </c>
       <c r="K12" s="1">
-        <v>13.023363879407</v>
+        <v>47.223507587036998</v>
       </c>
       <c r="L12" s="1">
-        <v>9.2220784992045601</v>
+        <v>2.7947200854274499</v>
       </c>
       <c r="M12" s="1">
-        <v>0.65043669201057697</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>17.9240127081531</v>
+        <v>45.342994362350403</v>
       </c>
       <c r="O12" s="1">
-        <v>74.615414036589002</v>
+        <v>161.73711801001701</v>
       </c>
       <c r="P12" s="1">
-        <v>20.9885960496328</v>
+        <v>31.1220866202301</v>
       </c>
       <c r="Q12" s="1">
-        <v>89.262274722805103</v>
+        <v>241.06475681455899</v>
       </c>
       <c r="R12" s="1">
-        <v>134.57610044991901</v>
+        <v>383.387836305093</v>
       </c>
       <c r="S12" s="1">
-        <v>33.798446776329598</v>
+        <v>50.5420494761185</v>
       </c>
       <c r="T12" s="1">
-        <v>43.200701491366999</v>
+        <v>43.103925719892302</v>
       </c>
       <c r="U12" s="1">
-        <v>17.645429706321</v>
+        <v>30.836228341531001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.4968183220624498</v>
+        <v>4.5022817813842098</v>
       </c>
       <c r="W12" s="1">
-        <v>65.591081498758996</v>
+        <v>23.957040890989401</v>
       </c>
       <c r="X12" s="1">
-        <v>0.28475105196188699</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>7.1842965054947898</v>
+        <v>3.2974234421806301</v>
       </c>
       <c r="Z12" s="1">
-        <v>16.1737179939167</v>
+        <v>2.8848348122769298</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.291776911409499</v>
+        <v>3.98417119305295</v>
       </c>
       <c r="AB12" s="1">
-        <v>2.3061736978442302</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>17.979332949240899</v>
+        <v>3.7135974301112298</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="1"/>
-        <v>3358.9016443250039</v>
+        <f t="shared" si="2"/>
+        <v>3507.2523910008035</v>
       </c>
       <c r="AE12" s="1">
         <v>3577</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AF12" s="4">
         <f t="shared" si="0"/>
-        <v>218.09835567499613</v>
+        <v>69.747608999196473</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="1"/>
+        <v>69.747608999196473</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15" customHeight="1">
+    <row r="13" spans="1:33" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>7.6216158251164696</v>
+        <v>7.7753236212768702</v>
       </c>
       <c r="C13" s="1">
-        <v>24.6273347807794</v>
+        <v>0.48677851238511699</v>
       </c>
       <c r="D13" s="1">
-        <v>30.1525747159316</v>
+        <v>14.9564272420139</v>
       </c>
       <c r="E13" s="1">
-        <v>20.351278048081401</v>
+        <v>2.2275740372970598</v>
       </c>
       <c r="F13" s="1">
-        <v>18.997529298401101</v>
+        <v>26.479561873826</v>
       </c>
       <c r="G13" s="1">
-        <v>74.896540048149902</v>
+        <v>179.76665100990499</v>
       </c>
       <c r="H13" s="1">
-        <v>85.698665216939801</v>
+        <v>326.57033199479201</v>
       </c>
       <c r="I13" s="1">
-        <v>133.27489410420199</v>
+        <v>426.550659882687</v>
       </c>
       <c r="J13" s="1">
-        <v>2244.7027502502701</v>
+        <v>1064.4816735120401</v>
       </c>
       <c r="K13" s="1">
-        <v>101.210160678463</v>
+        <v>339.41105224461398</v>
       </c>
       <c r="L13" s="1">
-        <v>9.0556488551866892</v>
+        <v>28.025056837696901</v>
       </c>
       <c r="M13" s="1">
-        <v>12.763294510002201</v>
+        <v>1.06791562233187</v>
       </c>
       <c r="N13" s="1">
-        <v>5.3626747129294197</v>
+        <v>5.8617205379426203</v>
       </c>
       <c r="O13" s="1">
-        <v>41.442585628928903</v>
+        <v>43.208230424621298</v>
       </c>
       <c r="P13" s="1">
-        <v>61.9642596637674</v>
+        <v>28.289487480439899</v>
       </c>
       <c r="Q13" s="1">
-        <v>89.376726388897495</v>
+        <v>145.39067759844599</v>
       </c>
       <c r="R13" s="1">
-        <v>195.50366530277299</v>
+        <v>591.93565511639804</v>
       </c>
       <c r="S13" s="1">
-        <v>53.330832203220403</v>
+        <v>49.221222114482401</v>
       </c>
       <c r="T13" s="1">
-        <v>43.593340705604497</v>
+        <v>40.483774145919497</v>
       </c>
       <c r="U13" s="1">
-        <v>65.349070740362606</v>
+        <v>130.87483042658801</v>
       </c>
       <c r="V13" s="1">
-        <v>13.625886343642</v>
+        <v>38.714147446367299</v>
       </c>
       <c r="W13" s="1">
-        <v>44.000863555267401</v>
+        <v>46.743488899919399</v>
       </c>
       <c r="X13" s="1">
-        <v>6.73575967460049</v>
+        <v>4.0106879490096903</v>
       </c>
       <c r="Y13" s="1">
-        <v>8.3343161289532599</v>
+        <v>5.7648609680801099</v>
       </c>
       <c r="Z13" s="1">
-        <v>16.255431558054799</v>
+        <v>4.1955615817507299</v>
       </c>
       <c r="AA13" s="1">
-        <v>35.335378816594201</v>
+        <v>4.03244022395715</v>
       </c>
       <c r="AB13" s="1">
-        <v>1.3921804407946801</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>22.3474583275014</v>
+        <v>4.4310782283525398</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="1"/>
-        <v>3467.3027165234143</v>
+        <f t="shared" si="2"/>
+        <v>3560.9568695331395</v>
       </c>
       <c r="AE13" s="1">
         <v>3630</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AF13" s="4">
         <f t="shared" si="0"/>
-        <v>162.69728347658565</v>
+        <v>69.043130466860475</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="1"/>
+        <v>69.043130466860475</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15" customHeight="1">
+    <row r="14" spans="1:33" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>29.971363489736</v>
+        <v>6.0393793430242297</v>
       </c>
       <c r="C14" s="1">
-        <v>1.03314187711398</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>18.885045407052498</v>
+        <v>1.0912572458438199</v>
       </c>
       <c r="E14" s="1">
-        <v>0.663475161281461</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>18.924829709405</v>
+        <v>1.1607817379931</v>
       </c>
       <c r="G14" s="1">
-        <v>43.098422848236297</v>
+        <v>27.610566699415902</v>
       </c>
       <c r="H14" s="1">
-        <v>98.635632784957807</v>
+        <v>263.19643002191498</v>
       </c>
       <c r="I14" s="1">
-        <v>38.1795450373533</v>
+        <v>33.143079406729498</v>
       </c>
       <c r="J14" s="1">
-        <v>126.34396083527599</v>
+        <v>420.23041412382202</v>
       </c>
       <c r="K14" s="1">
-        <v>2049.7706671333299</v>
+        <v>1155.8453351364101</v>
       </c>
       <c r="L14" s="1">
-        <v>127.138215978725</v>
+        <v>457.457740608645</v>
       </c>
       <c r="M14" s="1">
-        <v>5.8725978087674102</v>
+        <v>51.612924218013497</v>
       </c>
       <c r="N14" s="1">
-        <v>2.9916210026502599</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>14.9539890632603</v>
+        <v>2.0278100666235299</v>
       </c>
       <c r="P14" s="1">
-        <v>29.926529300036002</v>
+        <v>3.0542733856658599</v>
       </c>
       <c r="Q14" s="1">
-        <v>52.558647053481501</v>
+        <v>15.6497742150087</v>
       </c>
       <c r="R14" s="1">
-        <v>148.81972694345299</v>
+        <v>211.75883233851101</v>
       </c>
       <c r="S14" s="1">
-        <v>120.149439762594</v>
+        <v>11.9194514780779</v>
       </c>
       <c r="T14" s="1">
-        <v>52.454373163510802</v>
+        <v>15.865132980959499</v>
       </c>
       <c r="U14" s="1">
-        <v>71.296435554825194</v>
+        <v>227.487474237973</v>
       </c>
       <c r="V14" s="1">
-        <v>69.086603890484895</v>
+        <v>294.005949398871</v>
       </c>
       <c r="W14" s="1">
-        <v>32.376833491086003</v>
+        <v>34.119153426482498</v>
       </c>
       <c r="X14" s="1">
-        <v>7.8960312642434003</v>
+        <v>76.655577369638493</v>
       </c>
       <c r="Y14" s="1">
-        <v>12.8703239176432</v>
+        <v>1.55900557173473</v>
       </c>
       <c r="Z14" s="1">
-        <v>17.668069729719299</v>
+        <v>1.2433481656386201</v>
       </c>
       <c r="AA14" s="1">
-        <v>28.108039725922801</v>
+        <v>1.6962145763073999</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.62899044310577701</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>34.489617399230902</v>
+        <v>2.4874802889445702</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="1"/>
-        <v>3254.7921697764823</v>
+        <f t="shared" si="2"/>
+        <v>3316.9173860422493</v>
       </c>
       <c r="AE14" s="1">
         <v>3382</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14" s="4">
         <f t="shared" si="0"/>
-        <v>127.2078302235177</v>
+        <v>65.082613957750709</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="1"/>
+        <v>65.082613957750709</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15" customHeight="1">
+    <row r="15" spans="1:33" ht="15" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>5.2337555236134801</v>
+        <v>1.59054421582313</v>
       </c>
       <c r="C15" s="1">
-        <v>-7.6143922583449099E-3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.46989828564895397</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.86927221213042505</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0.46882098510380998</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>17.9154239842007</v>
+        <v>2.0889147797496399</v>
       </c>
       <c r="H15" s="1">
-        <v>66.183883571747799</v>
+        <v>54.527906601277202</v>
       </c>
       <c r="I15" s="1">
-        <v>36.7662029981214</v>
+        <v>1.8470971063733499</v>
       </c>
       <c r="J15" s="1">
-        <v>72.436288725204605</v>
+        <v>38.9746565727377</v>
       </c>
       <c r="K15" s="1">
-        <v>174.72031411725999</v>
+        <v>514.28412638948396</v>
       </c>
       <c r="L15" s="1">
-        <v>2484.3452589963199</v>
+        <v>1493.61790632473</v>
       </c>
       <c r="M15" s="1">
-        <v>191.936677793001</v>
+        <v>694.64273668053204</v>
       </c>
       <c r="N15" s="1">
-        <v>0.49909917081545102</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0.27475449669379398</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0.43390659455657499</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>26.103309850461599</v>
+        <v>1.14207354088607</v>
       </c>
       <c r="R15" s="1">
-        <v>147.68260386932101</v>
+        <v>23.478217666982001</v>
       </c>
       <c r="S15" s="1">
-        <v>63.166342035707899</v>
+        <v>1.8660448864777199</v>
       </c>
       <c r="T15" s="1">
-        <v>126.76771903385</v>
+        <v>4.29648433304967</v>
       </c>
       <c r="U15" s="1">
-        <v>63.436932570768299</v>
+        <v>77.172313800861403</v>
       </c>
       <c r="V15" s="1">
-        <v>94.709948576293797</v>
+        <v>467.43126858259302</v>
       </c>
       <c r="W15" s="1">
-        <v>45.479236526232199</v>
+        <v>13.6907681221975</v>
       </c>
       <c r="X15" s="1">
-        <v>80.988663025294002</v>
+        <v>467.81877192215302</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.83181856477146399</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>20.6633986252473</v>
+        <v>0.64588046573817404</v>
       </c>
       <c r="AA15" s="1">
-        <v>28.449788223248898</v>
+        <v>0.93742024282576497</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.31779768868707597</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>20.322489660173499</v>
+        <v>1.28373809101136</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="1"/>
-        <v>3771.4659913122177</v>
+        <f t="shared" si="2"/>
+        <v>3861.3368703254819</v>
       </c>
       <c r="AE15" s="1">
         <v>3932</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="4">
         <f t="shared" si="0"/>
-        <v>160.53400868778226</v>
+        <v>70.663129674518132</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="1"/>
+        <v>70.663129674518132</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15" customHeight="1">
+    <row r="16" spans="1:33" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>2.37118449361631</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0.21862390300854401</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1.1467855439874799</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.365103028683397</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0.59213758964200303</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0.90529182808044695</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>17.349456071093801</v>
+        <v>6.7996963970344302</v>
       </c>
       <c r="I16" s="1">
-        <v>1.47913287142261</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>57.072738889841503</v>
+        <v>3.8068570592916999</v>
       </c>
       <c r="K16" s="1">
-        <v>85.918571518691493</v>
+        <v>82.815344874201699</v>
       </c>
       <c r="L16" s="1">
-        <v>198.863376399467</v>
+        <v>742.53931289996797</v>
       </c>
       <c r="M16" s="1">
-        <v>2060.6216861335702</v>
+        <v>1485.06358208646</v>
       </c>
       <c r="N16" s="1">
-        <v>0.72685864892867003</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0.37697671982393599</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0.44165275668041598</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.12267204605875</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>91.271879561353302</v>
+        <v>3.1956876674394898</v>
       </c>
       <c r="S16" s="1">
-        <v>1.16840168554237</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>69.342203053234897</v>
+        <v>1.1714204056441</v>
       </c>
       <c r="U16" s="1">
-        <v>70.710065128965994</v>
+        <v>12.774923667938101</v>
       </c>
       <c r="V16" s="1">
-        <v>64.786282208375198</v>
+        <v>181.10530671636499</v>
       </c>
       <c r="W16" s="1">
-        <v>129.673317552192</v>
+        <v>4.7132356753690203</v>
       </c>
       <c r="X16" s="1">
-        <v>111.62753704363401</v>
+        <v>629.64421524467105</v>
       </c>
       <c r="Y16" s="1">
-        <v>1.5575105410035901</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>1.2137392167830301</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>28.037714166066301</v>
+        <v>0.96609160504455804</v>
       </c>
       <c r="AB16" s="1">
-        <v>2.14055056143689</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>27.237472871521501</v>
+        <v>1.1423511828323001</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="1"/>
-        <v>3027.6087159753392</v>
+        <f t="shared" si="2"/>
+        <v>3155.7380254822601</v>
       </c>
       <c r="AE16" s="1">
         <v>3217</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="4">
         <f t="shared" si="0"/>
-        <v>189.39128402466076</v>
+        <v>61.261974517739873</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="1"/>
+        <v>61.261974517739873</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15" customHeight="1">
+    <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>21.973325969090201</v>
+        <v>2.9802411265114999</v>
       </c>
       <c r="C17" s="1">
-        <v>2.9689853927579302</v>
+        <v>21.769982558991799</v>
       </c>
       <c r="D17" s="1">
-        <v>17.599617329700202</v>
+        <v>40.744634024243098</v>
       </c>
       <c r="E17" s="1">
-        <v>111.60203547053101</v>
+        <v>371.05152022846102</v>
       </c>
       <c r="F17" s="1">
-        <v>61.888042764252802</v>
+        <v>112.80382290497499</v>
       </c>
       <c r="G17" s="1">
-        <v>86.594363695894899</v>
+        <v>18.891300212002101</v>
       </c>
       <c r="H17" s="1">
-        <v>18.835818218118501</v>
+        <v>4.37061974040419</v>
       </c>
       <c r="I17" s="1">
-        <v>28.361421885403299</v>
+        <v>31.813862281114801</v>
       </c>
       <c r="J17" s="1">
-        <v>5.13553979682316</v>
+        <v>4.9304259081327997</v>
       </c>
       <c r="K17" s="1">
-        <v>0.59212775191921196</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0.22743461934654599</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>2.225194605769</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>1125.8297553528</v>
+        <v>722.40976368485701</v>
       </c>
       <c r="O17" s="1">
-        <v>97.898706243813706</v>
+        <v>173.58091143668699</v>
       </c>
       <c r="P17" s="1">
-        <v>74.096961749808997</v>
+        <v>127.256210668387</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.030052954766401</v>
+        <v>20.923103482531499</v>
       </c>
       <c r="R17" s="1">
-        <v>6.7810186571431403</v>
+        <v>7.9150054106709904</v>
       </c>
       <c r="S17" s="1">
-        <v>26.468567877989901</v>
+        <v>28.230097377944599</v>
       </c>
       <c r="T17" s="1">
-        <v>5.3449308008979504</v>
+        <v>4.2291365061580999</v>
       </c>
       <c r="U17" s="1">
-        <v>1.0531248903333701</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.446468806627626</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>0.75839350646412695</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0.24154918661467201</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>20.429423242212</v>
+        <v>33.157460466508503</v>
       </c>
       <c r="Z17" s="1">
-        <v>41.901545235050001</v>
+        <v>10.4057070495645</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.6825829112462</v>
+        <v>2.92101534926543</v>
       </c>
       <c r="AB17" s="1">
-        <v>35.078300972974901</v>
+        <v>6.0904652977022096</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.81029135182689704</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="1"/>
-        <v>1821.8555812401764</v>
+        <f t="shared" si="2"/>
+        <v>1746.4752857151132</v>
       </c>
       <c r="AE17" s="1">
         <v>1779</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="4">
         <f t="shared" si="0"/>
-        <v>-42.855581240176434</v>
+        <v>32.524714284886841</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="1"/>
+        <v>32.524714284886841</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15" customHeight="1">
+    <row r="18" spans="1:33" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>1.91761173208177</v>
+        <v>6.6219768519313504</v>
       </c>
       <c r="C18" s="1">
-        <v>14.5708350183136</v>
+        <v>3.7542878611568602</v>
       </c>
       <c r="D18" s="1">
-        <v>4.0209920500154697</v>
+        <v>13.5532517350135</v>
       </c>
       <c r="E18" s="1">
-        <v>67.102221715670794</v>
+        <v>112.508832295218</v>
       </c>
       <c r="F18" s="1">
-        <v>64.8870726907234</v>
+        <v>169.74714462616399</v>
       </c>
       <c r="G18" s="1">
-        <v>16.959312721696001</v>
+        <v>16.427180886035799</v>
       </c>
       <c r="H18" s="1">
-        <v>57.332686210141802</v>
+        <v>7.5327281009012204</v>
       </c>
       <c r="I18" s="1">
-        <v>92.491602708086901</v>
+        <v>119.19183401624601</v>
       </c>
       <c r="J18" s="1">
-        <v>28.525117826586701</v>
+        <v>23.839162721959301</v>
       </c>
       <c r="K18" s="1">
-        <v>4.37850056642122</v>
+        <v>2.2797626732016698</v>
       </c>
       <c r="L18" s="1">
-        <v>0.36784914047179001</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0.56886969709410795</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>86.907717497657899</v>
+        <v>315.11066734487201</v>
       </c>
       <c r="O18" s="1">
-        <v>1241.49872779366</v>
+        <v>567.76084489903997</v>
       </c>
       <c r="P18" s="1">
-        <v>85.842326121719793</v>
+        <v>271.21931760566201</v>
       </c>
       <c r="Q18" s="1">
-        <v>70.477449093306205</v>
+        <v>156.94664685537501</v>
       </c>
       <c r="R18" s="1">
-        <v>20.5959549876846</v>
+        <v>58.709819845679803</v>
       </c>
       <c r="S18" s="1">
-        <v>69.182320322316997</v>
+        <v>192.056575455923</v>
       </c>
       <c r="T18" s="1">
-        <v>21.8101720654251</v>
+        <v>34.620242469709098</v>
       </c>
       <c r="U18" s="1">
-        <v>3.8904995193200702</v>
+        <v>2.04979785340623</v>
       </c>
       <c r="V18" s="1">
-        <v>0.74467211986951498</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>5.76447049428059</v>
+        <v>4.63052282782348</v>
       </c>
       <c r="X18" s="1">
-        <v>4.7796658435305597</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>10.3657089290722</v>
+        <v>24.863875405961199</v>
       </c>
       <c r="Z18" s="1">
-        <v>22.799728947739801</v>
+        <v>28.7107016361795</v>
       </c>
       <c r="AA18" s="1">
-        <v>63.979242710568897</v>
+        <v>18.646697580578099</v>
       </c>
       <c r="AB18" s="1">
-        <v>29.497363772532399</v>
+        <v>4.1406336990898698</v>
       </c>
       <c r="AC18" s="1">
-        <v>16.6853171544277</v>
+        <v>3.2099059407726198</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="1"/>
-        <v>2107.9440094504162</v>
+        <f t="shared" si="2"/>
+        <v>2158.1324111878994</v>
       </c>
       <c r="AE18" s="1">
         <v>2203</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="4">
         <f t="shared" si="0"/>
-        <v>95.055990549583839</v>
+        <v>44.867588812100621</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" si="1"/>
+        <v>44.867588812100621</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1">
+    <row r="19" spans="1:33" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>0.3251646320821</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>9.0554472883555306</v>
+        <v>2.0519921932557601</v>
       </c>
       <c r="D19" s="1">
-        <v>2.7717585787829599</v>
+        <v>-0.26057056814622898</v>
       </c>
       <c r="E19" s="1">
-        <v>29.9095738293741</v>
+        <v>10.8935894830915</v>
       </c>
       <c r="F19" s="1">
-        <v>5.2266502700360498</v>
+        <v>15.3120816781929</v>
       </c>
       <c r="G19" s="1">
-        <v>2.9636756954933201</v>
+        <v>1.1978017213830101</v>
       </c>
       <c r="H19" s="1">
-        <v>9.8238487241565409</v>
+        <v>1.4996990901081699</v>
       </c>
       <c r="I19" s="1">
-        <v>19.2164082312229</v>
+        <v>24.1186488177771</v>
       </c>
       <c r="J19" s="1">
-        <v>83.062354082801406</v>
+        <v>12.623814126313301</v>
       </c>
       <c r="K19" s="1">
-        <v>17.226224893617701</v>
+        <v>2.549526113927</v>
       </c>
       <c r="L19" s="1">
-        <v>0.23007762262392401</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0.33444647015279799</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>83.634169870806502</v>
+        <v>163.168348360224</v>
       </c>
       <c r="O19" s="1">
-        <v>85.730624555530895</v>
+        <v>272.46686449978102</v>
       </c>
       <c r="P19" s="1">
-        <v>1694.45901042937</v>
+        <v>932.08353852330799</v>
       </c>
       <c r="Q19" s="1">
-        <v>86.702831257747604</v>
+        <v>109.56423464939699</v>
       </c>
       <c r="R19" s="1">
-        <v>69.959186111552597</v>
+        <v>60.513908075358998</v>
       </c>
       <c r="S19" s="1">
-        <v>161.62923878164301</v>
+        <v>375.060407287891</v>
       </c>
       <c r="T19" s="1">
-        <v>18.271988692109701</v>
+        <v>51.640528269272302</v>
       </c>
       <c r="U19" s="1">
-        <v>3.9989006765820698</v>
+        <v>2.84595036544306</v>
       </c>
       <c r="V19" s="1">
-        <v>0.27334838725778199</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>5.6178923330078003</v>
+        <v>7.1759300990094399</v>
       </c>
       <c r="X19" s="1">
-        <v>0.959255811375887</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>117.75272069850701</v>
+        <v>365.79507527156801</v>
       </c>
       <c r="Z19" s="1">
-        <v>72.310749322153796</v>
+        <v>148.88254119614601</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.1940780808041</v>
+        <v>44.5647201493084</v>
       </c>
       <c r="AB19" s="1">
-        <v>13.931195022033499</v>
+        <v>63.979385947906202</v>
       </c>
       <c r="AC19" s="1">
-        <v>5.3232082977066</v>
+        <v>7.5820007696629999</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="1"/>
-        <v>2620.8940286468874</v>
+        <f t="shared" si="2"/>
+        <v>2675.3100161201792</v>
       </c>
       <c r="AE19" s="1">
         <v>2728</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AF19" s="4">
         <f t="shared" si="0"/>
-        <v>107.10597135311264</v>
+        <v>52.689983879820829</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="1"/>
+        <v>52.689983879820829</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1">
+    <row r="20" spans="1:33" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>2.07649376392509</v>
+        <v>-0.19575100834193801</v>
       </c>
       <c r="C20" s="1">
-        <v>84.156149648745497</v>
+        <v>0.83023291723544201</v>
       </c>
       <c r="D20" s="1">
-        <v>17.5869251191967</v>
+        <v>5.9595982799035596</v>
       </c>
       <c r="E20" s="1">
-        <v>27.8225559102255</v>
+        <v>6.3130137784607996</v>
       </c>
       <c r="F20" s="1">
-        <v>44.151289768710001</v>
+        <v>61.1061822103404</v>
       </c>
       <c r="G20" s="1">
-        <v>4.4811334710193602</v>
+        <v>13.3171243330706</v>
       </c>
       <c r="H20" s="1">
-        <v>11.666047220824</v>
+        <v>12.4303412751716</v>
       </c>
       <c r="I20" s="1">
-        <v>72.406196741690493</v>
+        <v>236.527744372109</v>
       </c>
       <c r="J20" s="1">
-        <v>79.193819615712101</v>
+        <v>126.91381041465</v>
       </c>
       <c r="K20" s="1">
-        <v>31.142737021628701</v>
+        <v>18.555575578144399</v>
       </c>
       <c r="L20" s="1">
-        <v>8.1853145320034706</v>
+        <v>0.96878786668626005</v>
       </c>
       <c r="M20" s="1">
-        <v>0.58813842187613796</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>11.3061936237011</v>
+        <v>14.166715964772999</v>
       </c>
       <c r="O20" s="1">
-        <v>65.169750640952003</v>
+        <v>188.90022297449701</v>
       </c>
       <c r="P20" s="1">
-        <v>61.5682407566416</v>
+        <v>98.444633391290296</v>
       </c>
       <c r="Q20" s="1">
-        <v>1250.05720507552</v>
+        <v>446.193545553229</v>
       </c>
       <c r="R20" s="1">
-        <v>135.78722344532</v>
+        <v>450.181252899529</v>
       </c>
       <c r="S20" s="1">
-        <v>95.871095223837202</v>
+        <v>294.60253890844399</v>
       </c>
       <c r="T20" s="1">
-        <v>65.834738379496699</v>
+        <v>158.47775141271799</v>
       </c>
       <c r="U20" s="1">
-        <v>10.4761878950951</v>
+        <v>21.4010424375867</v>
       </c>
       <c r="V20" s="1">
-        <v>9.8987153428445893</v>
+        <v>2.26158370944052</v>
       </c>
       <c r="W20" s="1">
-        <v>22.358424672117799</v>
+        <v>36.178317598298001</v>
       </c>
       <c r="X20" s="1">
-        <v>1.31472713101878</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>15.7626399143954</v>
+        <v>10.6603359758714</v>
       </c>
       <c r="Z20" s="1">
-        <v>14.009356898615099</v>
+        <v>18.477380057057999</v>
       </c>
       <c r="AA20" s="1">
-        <v>33.306556239910798</v>
+        <v>30.9219228782882</v>
       </c>
       <c r="AB20" s="1">
-        <v>33.6783949641326</v>
+        <v>2.21595809346484</v>
       </c>
       <c r="AC20" s="1">
-        <v>84.032878138356907</v>
+        <v>15.348205830360101</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="1"/>
-        <v>2293.8891295775124</v>
+        <f t="shared" si="2"/>
+        <v>2271.158067702278</v>
       </c>
       <c r="AE20" s="1">
         <v>2318</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AF20" s="4">
         <f t="shared" si="0"/>
-        <v>24.110870422487551</v>
+        <v>46.841932297721996</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="1"/>
+        <v>46.841932297721996</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15" customHeight="1">
+    <row r="21" spans="1:33" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>18.165688880567998</v>
+        <v>0.71935463149587497</v>
       </c>
       <c r="C21" s="1">
-        <v>57.821438984425598</v>
+        <v>0.36778220028243103</v>
       </c>
       <c r="D21" s="1">
-        <v>136.68327916306299</v>
+        <v>6.56085545516164</v>
       </c>
       <c r="E21" s="1">
-        <v>73.982389032645202</v>
+        <v>1.17578159604221</v>
       </c>
       <c r="F21" s="1">
-        <v>56.835661003033003</v>
+        <v>18.805081608875501</v>
       </c>
       <c r="G21" s="1">
-        <v>65.381471528118894</v>
+        <v>31.407789722283301</v>
       </c>
       <c r="H21" s="1">
-        <v>12.6250628151833</v>
+        <v>40.803280941593002</v>
       </c>
       <c r="I21" s="1">
-        <v>147.05372881361799</v>
+        <v>361.684417057806</v>
       </c>
       <c r="J21" s="1">
-        <v>143.34505583187001</v>
+        <v>585.913931800662</v>
       </c>
       <c r="K21" s="1">
-        <v>115.963416974127</v>
+        <v>287.51626625285201</v>
       </c>
       <c r="L21" s="1">
-        <v>90.850921739476604</v>
+        <v>23.712926473418602</v>
       </c>
       <c r="M21" s="1">
-        <v>64.372692176568506</v>
+        <v>1.1140655736812799</v>
       </c>
       <c r="N21" s="1">
-        <v>73.280363777596904</v>
+        <v>2.7738754058268702</v>
       </c>
       <c r="O21" s="1">
-        <v>37.238312707333201</v>
+        <v>48.083934455437699</v>
       </c>
       <c r="P21" s="1">
-        <v>74.096019472435401</v>
+        <v>64.092783548451706</v>
       </c>
       <c r="Q21" s="1">
-        <v>115.57506280794399</v>
+        <v>448.52312847779802</v>
       </c>
       <c r="R21" s="1">
-        <v>3890.2707908934799</v>
+        <v>2130.9956212606098</v>
       </c>
       <c r="S21" s="1">
-        <v>138.929591534228</v>
+        <v>423.24732343883102</v>
       </c>
       <c r="T21" s="1">
-        <v>156.21550081044799</v>
+        <v>573.24684500146998</v>
       </c>
       <c r="U21" s="1">
-        <v>115.964994729398</v>
+        <v>392.03614401400603</v>
       </c>
       <c r="V21" s="1">
-        <v>20.4228940751299</v>
+        <v>56.975182391444697</v>
       </c>
       <c r="W21" s="1">
-        <v>123.29015084648501</v>
+        <v>406.10111050523102</v>
       </c>
       <c r="X21" s="1">
-        <v>43.498422173533697</v>
+        <v>3.8509368177113599</v>
       </c>
       <c r="Y21" s="1">
-        <v>99.527665817207804</v>
+        <v>28.9667410840561</v>
       </c>
       <c r="Z21" s="1">
-        <v>56.488797805283603</v>
+        <v>45.412852756076497</v>
       </c>
       <c r="AA21" s="1">
-        <v>42.227506389195497</v>
+        <v>71.591080181437803</v>
       </c>
       <c r="AB21" s="1">
-        <v>61.710356552552099</v>
+        <v>8.8440045145382999</v>
       </c>
       <c r="AC21" s="1">
-        <v>58.401545284057299</v>
+        <v>75.2055428938517</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="1"/>
-        <v>6090.2187826190075</v>
+        <f t="shared" si="2"/>
+        <v>6139.7286400609319</v>
       </c>
       <c r="AE21" s="1">
         <v>6236</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" s="4">
         <f t="shared" si="0"/>
-        <v>145.78121738099253</v>
+        <v>96.271359939068134</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="1"/>
+        <v>96.271359939068134</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15" customHeight="1">
+    <row r="22" spans="1:33" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>0.57706213014984298</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>39.414016854011201</v>
+        <v>0.61032182643820099</v>
       </c>
       <c r="D22" s="1">
-        <v>10.9784837881857</v>
+        <v>0.765421479399916</v>
       </c>
       <c r="E22" s="1">
-        <v>119.346175802182</v>
+        <v>3.6045961041107</v>
       </c>
       <c r="F22" s="1">
-        <v>28.317968576943201</v>
+        <v>11.7904973373962</v>
       </c>
       <c r="G22" s="1">
-        <v>6.6473007535976896</v>
+        <v>0.95511313767820705</v>
       </c>
       <c r="H22" s="1">
-        <v>6.46651413889649</v>
+        <v>1.36895964309356</v>
       </c>
       <c r="I22" s="1">
-        <v>12.9127354649941</v>
+        <v>31.149343249585399</v>
       </c>
       <c r="J22" s="1">
-        <v>28.606443921453799</v>
+        <v>30.8332585766607</v>
       </c>
       <c r="K22" s="1">
-        <v>99.469787254431097</v>
+        <v>10.987136871723999</v>
       </c>
       <c r="L22" s="1">
-        <v>22.531335354668599</v>
+        <v>1.08068794876427</v>
       </c>
       <c r="M22" s="1">
-        <v>-3.9691258821656299E-2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="1">
-        <v>38.472299552138402</v>
+        <v>16.229411201648698</v>
       </c>
       <c r="O22" s="1">
-        <v>126.014354109476</v>
+        <v>165.34201469797401</v>
       </c>
       <c r="P22" s="1">
-        <v>138.17128430375899</v>
+        <v>454.36357169645601</v>
       </c>
       <c r="Q22" s="1">
-        <v>103.053309781949</v>
+        <v>281.04647305429199</v>
       </c>
       <c r="R22" s="1">
-        <v>203.78858004597899</v>
+        <v>390.33188200630798</v>
       </c>
       <c r="S22" s="1">
-        <v>2793.4055094349001</v>
+        <v>1411.9573561152599</v>
       </c>
       <c r="T22" s="1">
-        <v>170.687283749491</v>
+        <v>473.84957572713898</v>
       </c>
       <c r="U22" s="1">
-        <v>48.707136456368801</v>
+        <v>26.414906258959501</v>
       </c>
       <c r="V22" s="1">
-        <v>8.4156679151344793</v>
+        <v>2.5623475752138001</v>
       </c>
       <c r="W22" s="1">
-        <v>24.066456920558</v>
+        <v>72.8157286637135</v>
       </c>
       <c r="X22" s="1">
-        <v>1.50051316000093</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>79.007913553833006</v>
+        <v>176.045190493777</v>
       </c>
       <c r="Z22" s="1">
-        <v>126.556195504537</v>
+        <v>361.43621910522802</v>
       </c>
       <c r="AA22" s="1">
-        <v>106.35812980260199</v>
+        <v>295.171490984358</v>
       </c>
       <c r="AB22" s="1">
-        <v>6.2158211471143101</v>
+        <v>60.973779638138701</v>
       </c>
       <c r="AC22" s="1">
-        <v>24.651567473195001</v>
+        <v>59.642378794842401</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="1"/>
-        <v>4374.3001556917288</v>
+        <f t="shared" si="2"/>
+        <v>4341.3276621881587</v>
       </c>
       <c r="AE22" s="1">
         <v>4418</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="4">
         <f t="shared" si="0"/>
-        <v>43.699844308271167</v>
+        <v>76.672337811841317</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="1"/>
+        <v>76.672337811841317</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1">
+    <row r="23" spans="1:33" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>0.89444219201271102</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>14.5186541744088</v>
+        <v>0.16563783911993299</v>
       </c>
       <c r="D23" s="1">
-        <v>14.4807428583812</v>
+        <v>0.95479565610475103</v>
       </c>
       <c r="E23" s="1">
-        <v>18.936834501131099</v>
+        <v>0.54837376980034902</v>
       </c>
       <c r="F23" s="1">
-        <v>35.714650625167998</v>
+        <v>5.2120262900820897</v>
       </c>
       <c r="G23" s="1">
-        <v>8.2430700054416395</v>
+        <v>1.3353156154511501</v>
       </c>
       <c r="H23" s="1">
-        <v>9.1403539974118004</v>
+        <v>1.69380513559707</v>
       </c>
       <c r="I23" s="1">
-        <v>27.124453117471099</v>
+        <v>30.545587137934699</v>
       </c>
       <c r="J23" s="1">
-        <v>14.6234067332922</v>
+        <v>37.468047431732401</v>
       </c>
       <c r="K23" s="1">
-        <v>27.787603736748299</v>
+        <v>19.4953229071476</v>
       </c>
       <c r="L23" s="1">
-        <v>130.108098336853</v>
+        <v>3.8002568802730199</v>
       </c>
       <c r="M23" s="1">
-        <v>62.506062403307702</v>
+        <v>1.9976954048256601</v>
       </c>
       <c r="N23" s="1">
-        <v>12.723418444487599</v>
+        <v>1.0520452891543299</v>
       </c>
       <c r="O23" s="1">
-        <v>26.930806262725401</v>
+        <v>21.072839310527801</v>
       </c>
       <c r="P23" s="1">
-        <v>16.776685467124899</v>
+        <v>38.668638565193902</v>
       </c>
       <c r="Q23" s="1">
-        <v>89.117270984237095</v>
+        <v>154.85671100433601</v>
       </c>
       <c r="R23" s="1">
-        <v>170.26613973257099</v>
+        <v>610.57383789752203</v>
       </c>
       <c r="S23" s="1">
-        <v>139.328904062389</v>
+        <v>504.22659763138</v>
       </c>
       <c r="T23" s="1">
-        <v>2392.6665256497599</v>
+        <v>1068.4155351877</v>
       </c>
       <c r="U23" s="1">
-        <v>58.487347818570797</v>
+        <v>89.834327866079093</v>
       </c>
       <c r="V23" s="1">
-        <v>52.3726443917853</v>
+        <v>17.823866473380399</v>
       </c>
       <c r="W23" s="1">
-        <v>101.545551078272</v>
+        <v>370.658328603661</v>
       </c>
       <c r="X23" s="1">
-        <v>22.170880896359801</v>
+        <v>1.2910917750559601</v>
       </c>
       <c r="Y23" s="1">
-        <v>31.389571722198799</v>
+        <v>27.390856354889401</v>
       </c>
       <c r="Z23" s="1">
-        <v>50.871361912300998</v>
+        <v>147.96756386651299</v>
       </c>
       <c r="AA23" s="1">
-        <v>111.64168473466199</v>
+        <v>403.62406279842003</v>
       </c>
       <c r="AB23" s="1">
-        <v>11.679695941344599</v>
+        <v>39.227981148760499</v>
       </c>
       <c r="AC23" s="1">
-        <v>59.3237704630412</v>
+        <v>234.244801222387</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="1"/>
-        <v>3711.3706322434582</v>
+        <f t="shared" si="2"/>
+        <v>3834.1459490630291</v>
       </c>
       <c r="AE23" s="1">
         <v>3902</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AF23" s="4">
         <f t="shared" si="0"/>
-        <v>190.6293677565418</v>
+        <v>67.854050936970907</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="1"/>
+        <v>67.854050936970907</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15" customHeight="1">
+    <row r="24" spans="1:33" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>14.818445043381701</v>
+        <v>-0.30195467778083002</v>
       </c>
       <c r="C24" s="1">
-        <v>0.53013136597728605</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>13.183350178245099</v>
+        <v>5.8383372049300002</v>
       </c>
       <c r="E24" s="1">
-        <v>2.23600935099154</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9.1956325590193408</v>
+        <v>4.0946845484984298</v>
       </c>
       <c r="G24" s="1">
-        <v>58.820423524677302</v>
+        <v>7.5994209090142402</v>
       </c>
       <c r="H24" s="1">
-        <v>30.169012877071498</v>
+        <v>24.511262646509199</v>
       </c>
       <c r="I24" s="1">
-        <v>27.343037623750799</v>
+        <v>18.863591518912401</v>
       </c>
       <c r="J24" s="1">
-        <v>90.010658543193898</v>
+        <v>166.59260972222199</v>
       </c>
       <c r="K24" s="1">
-        <v>82.785303970931395</v>
+        <v>242.92868473735501</v>
       </c>
       <c r="L24" s="1">
-        <v>49.111411872256703</v>
+        <v>65.795688793090093</v>
       </c>
       <c r="M24" s="1">
-        <v>51.161751795812002</v>
+        <v>6.4211651783965902</v>
       </c>
       <c r="N24" s="1">
-        <v>3.3118109173983301</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>18.7931451705272</v>
+        <v>1.0875050911485</v>
       </c>
       <c r="P24" s="1">
-        <v>17.1797843200351</v>
+        <v>1.9498357288738499</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.6340729071401</v>
+        <v>13.4653996389035</v>
       </c>
       <c r="R24" s="1">
-        <v>86.005052122788399</v>
+        <v>323.25873259324402</v>
       </c>
       <c r="S24" s="1">
-        <v>32.848238557951603</v>
+        <v>16.991391063003402</v>
       </c>
       <c r="T24" s="1">
-        <v>34.525546678364599</v>
+        <v>66.139007826514799</v>
       </c>
       <c r="U24" s="1">
-        <v>841.10361084325098</v>
+        <v>331.39325466838102</v>
       </c>
       <c r="V24" s="1">
-        <v>63.154993933473897</v>
+        <v>207.32358181746699</v>
       </c>
       <c r="W24" s="1">
-        <v>49.457405551922697</v>
+        <v>200.57410649915499</v>
       </c>
       <c r="X24" s="1">
-        <v>5.72975610320767</v>
+        <v>22.2710846327419</v>
       </c>
       <c r="Y24" s="1">
-        <v>22.8470934432071</v>
+        <v>1.60513086929431</v>
       </c>
       <c r="Z24" s="1">
-        <v>60.250259386619597</v>
+        <v>4.3463109832933604</v>
       </c>
       <c r="AA24" s="1">
-        <v>25.233319695599899</v>
+        <v>10.3124914381944</v>
       </c>
       <c r="AB24" s="1">
-        <v>30.849656236100099</v>
+        <v>1.7981103167743</v>
       </c>
       <c r="AC24" s="1">
-        <v>9.1157515738450794</v>
+        <v>19.214588904500001</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="1"/>
-        <v>1740.4046661467407</v>
+        <f t="shared" si="2"/>
+        <v>1764.0740226526361</v>
       </c>
       <c r="AE24" s="1">
         <v>1806</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AF24" s="4">
         <f t="shared" si="0"/>
-        <v>65.595333853259262</v>
+        <v>41.925977347363869</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="1"/>
+        <v>41.925977347363869</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1">
+    <row r="25" spans="1:33" ht="15" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>6.0604907719907102</v>
+        <v>2.8395761633316998</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.21438536340480099</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>0.20913817652812</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.19687855300811</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0.54932068888446295</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>10.891483504626001</v>
+        <v>1.5111563548703</v>
       </c>
       <c r="H25" s="1">
-        <v>51.643157570212203</v>
+        <v>23.7647780464054</v>
       </c>
       <c r="I25" s="1">
-        <v>7.3284375915261704</v>
+        <v>1.4649759072031301</v>
       </c>
       <c r="J25" s="1">
-        <v>36.3966061536347</v>
+        <v>34.263836236777799</v>
       </c>
       <c r="K25" s="1">
-        <v>129.45598518089599</v>
+        <v>303.07601217269399</v>
       </c>
       <c r="L25" s="1">
-        <v>174.777544707174</v>
+        <v>450.40184628646</v>
       </c>
       <c r="M25" s="1">
-        <v>80.444906896249705</v>
+        <v>170.05685195634601</v>
       </c>
       <c r="N25" s="1">
-        <v>1.59401138208885</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>0.96903003619445605</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0.42011788237446701</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.9142373465641001</v>
+        <v>0.73081403622987895</v>
       </c>
       <c r="R25" s="1">
-        <v>21.117669879303499</v>
+        <v>26.885301090635</v>
       </c>
       <c r="S25" s="1">
-        <v>15.9417474178112</v>
+        <v>1.2684901149778001</v>
       </c>
       <c r="T25" s="1">
-        <v>21.077678198518701</v>
+        <v>5.15399006329414</v>
       </c>
       <c r="U25" s="1">
-        <v>52.033977132223797</v>
+        <v>127.546546683117</v>
       </c>
       <c r="V25" s="1">
-        <v>1410.1965250736901</v>
+        <v>713.88972400523801</v>
       </c>
       <c r="W25" s="1">
-        <v>25.268585838075499</v>
+        <v>46.146196859440302</v>
       </c>
       <c r="X25" s="1">
-        <v>172.26656645022999</v>
+        <v>419.40299812013001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.42493781381504597</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>23.977748285406602</v>
+        <v>6.7753483546922704</v>
       </c>
       <c r="AA25" s="1">
-        <v>66.745476594522103</v>
+        <v>1.8452590032898899</v>
       </c>
       <c r="AB25" s="1">
-        <v>40.599052609107297</v>
+        <v>5.1361588276929098</v>
       </c>
       <c r="AC25" s="1">
-        <v>18.5737929125345</v>
+        <v>4.5924790036162904</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="1"/>
-        <v>2377.4669621777693</v>
+        <f t="shared" si="2"/>
+        <v>2346.7523392864414</v>
       </c>
       <c r="AE25" s="1">
         <v>2398</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AF25" s="4">
         <f t="shared" si="0"/>
-        <v>20.533037822230654</v>
+        <v>51.247660713558616</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" si="1"/>
+        <v>51.247660713558616</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1">
+    <row r="26" spans="1:33" ht="15" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>1.7981574645448599</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0.32920403374645901</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>8.0926443744411607</v>
+        <v>8.0669946626964499</v>
       </c>
       <c r="E26" s="1">
-        <v>0.22355769619364599</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>6.3165535349254096</v>
+        <v>0.984580767645301</v>
       </c>
       <c r="G26" s="1">
-        <v>9.7531416608094705</v>
+        <v>2.0759686013285199</v>
       </c>
       <c r="H26" s="1">
-        <v>8.3418981812066004</v>
+        <v>2.2742826300515899</v>
       </c>
       <c r="I26" s="1">
-        <v>29.089828672901799</v>
+        <v>23.134301540134899</v>
       </c>
       <c r="J26" s="1">
-        <v>27.092851867340801</v>
+        <v>60.632417116447101</v>
       </c>
       <c r="K26" s="1">
-        <v>16.861304560048701</v>
+        <v>36.010396618548398</v>
       </c>
       <c r="L26" s="1">
-        <v>27.270211158837402</v>
+        <v>7.9226060001978302</v>
       </c>
       <c r="M26" s="1">
-        <v>156.349677686262</v>
+        <v>10.3586036434366</v>
       </c>
       <c r="N26" s="1">
-        <v>0.869711853430296</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>4.5678433714263402</v>
+        <v>1.74073322220083</v>
       </c>
       <c r="P26" s="1">
-        <v>12.787365403767099</v>
+        <v>2.7969313791385799</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.151539847692399</v>
+        <v>35.700549088751998</v>
       </c>
       <c r="R26" s="1">
-        <v>147.66291587620401</v>
+        <v>500.20981843151202</v>
       </c>
       <c r="S26" s="1">
-        <v>11.286358569593</v>
+        <v>62.965852799568196</v>
       </c>
       <c r="T26" s="1">
-        <v>87.086280415616002</v>
+        <v>349.34991219402502</v>
       </c>
       <c r="U26" s="1">
-        <v>75.164766848208998</v>
+        <v>196.12974864339401</v>
       </c>
       <c r="V26" s="1">
-        <v>46.416277144651502</v>
+        <v>74.702981320705206</v>
       </c>
       <c r="W26" s="1">
-        <v>1586.8606923950099</v>
+        <v>790.86683339307501</v>
       </c>
       <c r="X26" s="1">
-        <v>55.536807888623699</v>
+        <v>7.5739602572421498</v>
       </c>
       <c r="Y26" s="1">
-        <v>20.096448361905001</v>
+        <v>2.50426806459074</v>
       </c>
       <c r="Z26" s="1">
-        <v>15.120144657411</v>
+        <v>22.948201635480402</v>
       </c>
       <c r="AA26" s="1">
-        <v>30.6795667189668</v>
+        <v>131.15037456881001</v>
       </c>
       <c r="AB26" s="1">
-        <v>39.886556351355097</v>
+        <v>13.309631629311699</v>
       </c>
       <c r="AC26" s="1">
-        <v>71.569935140969406</v>
+        <v>313.06144265170599</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="1"/>
-        <v>2512.2622417360885</v>
+        <f t="shared" si="2"/>
+        <v>2656.4713908599983</v>
       </c>
       <c r="AE26" s="1">
         <v>2707</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AF26" s="4">
         <f t="shared" si="0"/>
-        <v>194.73775826391147</v>
+        <v>50.528609140001663</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="1"/>
+        <v>50.528609140001663</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15" customHeight="1">
+    <row r="27" spans="1:33" ht="15" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>2.1335610967175098</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0.69815642253866395</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.10176231099133599</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.84535266645004203</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>1.51071273331962</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.17463168564071899</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>10.186367619428101</v>
+        <v>6.3894840977477401</v>
       </c>
       <c r="I27" s="1">
-        <v>0.41930636204014599</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>7.3459328599998699</v>
+        <v>4.5342117392275201</v>
       </c>
       <c r="K27" s="1">
-        <v>52.433831024758099</v>
+        <v>101.606635334776</v>
       </c>
       <c r="L27" s="1">
-        <v>186.65123871880201</v>
+        <v>580.83521782852495</v>
       </c>
       <c r="M27" s="1">
-        <v>226.00943861939101</v>
+        <v>679.14735242986001</v>
       </c>
       <c r="N27" s="1">
-        <v>0.19482898130246701</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>1.15087919234852</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>-0.35738102126409299</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.88368330938231898</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>16.6934683413043</v>
+        <v>3.4470840175055102</v>
       </c>
       <c r="S27" s="1">
-        <v>0.52502117667691905</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>13.944854198199501</v>
+        <v>1.02217361380355</v>
       </c>
       <c r="U27" s="1">
-        <v>11.3648895486534</v>
+        <v>20.735868262873399</v>
       </c>
       <c r="V27" s="1">
-        <v>80.2067289898025</v>
+        <v>326.64464246721599</v>
       </c>
       <c r="W27" s="1">
-        <v>13.933003846853</v>
+        <v>7.8362102928614297</v>
       </c>
       <c r="X27" s="1">
-        <v>1856.150592213</v>
+        <v>958.63720158581202</v>
       </c>
       <c r="Y27" s="1">
-        <v>1.05093516643582</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.50031232367547296</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <v>24.169426696238698</v>
+        <v>0.65224167532838695</v>
       </c>
       <c r="AB27" s="1">
-        <v>1.1270200093937499</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>47.439713551788799</v>
+        <v>1.7856483184898999</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="1"/>
-        <v>2557.2847440218857</v>
+        <f t="shared" si="2"/>
+        <v>2693.2739716640262</v>
       </c>
       <c r="AE27" s="1">
         <v>2746</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AF27" s="4">
         <f t="shared" si="0"/>
-        <v>188.71525597811433</v>
+        <v>52.726028335973751</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="1"/>
+        <v>52.726028335973751</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15" customHeight="1">
+    <row r="28" spans="1:33" ht="15" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.18608438004380201</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>1.2383533648112099</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0.52957107056931196</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>14.0559870572402</v>
+        <v>0.68247372130978301</v>
       </c>
       <c r="F28" s="1">
-        <v>3.6786120683068799</v>
+        <v>1.0786389175820901</v>
       </c>
       <c r="G28" s="1">
-        <v>0.54459746561445299</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0.80218264128642702</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>4.4803060262513297</v>
+        <v>2.19384594900083</v>
       </c>
       <c r="J28" s="1">
-        <v>14.170343990356001</v>
+        <v>2.74489678656035</v>
       </c>
       <c r="K28" s="1">
-        <v>22.838031635019899</v>
+        <v>1.6241079239953999</v>
       </c>
       <c r="L28" s="1">
-        <v>1.1737084711817201</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>0.67851004283165794</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>41.435077775801503</v>
+        <v>14.6088260559853</v>
       </c>
       <c r="O28" s="1">
-        <v>11.6988124113736</v>
+        <v>27.0206240227362</v>
       </c>
       <c r="P28" s="1">
-        <v>106.60970335934201</v>
+        <v>324.29812761953099</v>
       </c>
       <c r="Q28" s="1">
-        <v>17.9703004480786</v>
+        <v>24.530739328786701</v>
       </c>
       <c r="R28" s="1">
-        <v>119.655079614576</v>
+        <v>34.353376911600797</v>
       </c>
       <c r="S28" s="1">
-        <v>121.99150295309001</v>
+        <v>232.80833201036401</v>
       </c>
       <c r="T28" s="1">
-        <v>39.834357898674597</v>
+        <v>57.753054680574202</v>
       </c>
       <c r="U28" s="1">
-        <v>11.405836772895899</v>
+        <v>3.0877807974446001</v>
       </c>
       <c r="V28" s="1">
-        <v>0.22376628496443399</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>3.0637811387272702</v>
+        <v>9.6764746790979697</v>
       </c>
       <c r="X28" s="1">
-        <v>0.72558835888967199</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>1209.11469987903</v>
+        <v>740.99702350093196</v>
       </c>
       <c r="Z28" s="1">
-        <v>78.861443194399399</v>
+        <v>204.40599435597099</v>
       </c>
       <c r="AA28" s="1">
-        <v>9.4803381679188305</v>
+        <v>62.052185646648098</v>
       </c>
       <c r="AB28" s="1">
-        <v>75.4782463328863</v>
+        <v>197.499447629836</v>
       </c>
       <c r="AC28" s="1">
-        <v>2.2821177606968401</v>
+        <v>11.970827342579399</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="1"/>
-        <v>1913.8347718047703</v>
+        <f t="shared" si="2"/>
+        <v>1953.3867778805354</v>
       </c>
       <c r="AE28" s="1">
         <v>1991</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AF28" s="4">
         <f t="shared" si="0"/>
-        <v>77.165228195229702</v>
+        <v>37.613222119464581</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="1"/>
+        <v>37.613222119464581</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1">
+    <row r="29" spans="1:33" ht="15" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>1.69221919448143</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>1.3786378723203201</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0.35343715562857603</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>13.6371436564833</v>
+        <v>0.44248949384590502</v>
       </c>
       <c r="F29" s="1">
-        <v>3.7818486046100301</v>
+        <v>3.3063405886230099</v>
       </c>
       <c r="G29" s="1">
-        <v>0.41529611999153698</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0.83102105005910298</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>4.4730372270352596</v>
+        <v>1.2856952053933699</v>
       </c>
       <c r="J29" s="1">
-        <v>6.1541433604711804</v>
+        <v>1.7998131296470501</v>
       </c>
       <c r="K29" s="1">
-        <v>10.4894673981536</v>
+        <v>1.3852659084227701</v>
       </c>
       <c r="L29" s="1">
-        <v>11.9241076609669</v>
+        <v>0.31198235263833402</v>
       </c>
       <c r="M29" s="1">
-        <v>0.28278423669102298</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>40.933984796155201</v>
+        <v>4.2385903533909302</v>
       </c>
       <c r="O29" s="1">
-        <v>21.926548248338602</v>
+        <v>13.7525034209133</v>
       </c>
       <c r="P29" s="1">
-        <v>121.268443671545</v>
+        <v>133.00496462647899</v>
       </c>
       <c r="Q29" s="1">
-        <v>9.6356340833168304</v>
+        <v>17.311128642631999</v>
       </c>
       <c r="R29" s="1">
-        <v>36.012085481432102</v>
+        <v>42.542218239340102</v>
       </c>
       <c r="S29" s="1">
-        <v>117.161341524441</v>
+        <v>291.55411451683699</v>
       </c>
       <c r="T29" s="1">
-        <v>90.776907176619801</v>
+        <v>148.77723833163401</v>
       </c>
       <c r="U29" s="1">
-        <v>45.278518651345003</v>
+        <v>7.2497758650049198</v>
       </c>
       <c r="V29" s="1">
-        <v>8.2869109928115403</v>
+        <v>1.3247348249430599</v>
       </c>
       <c r="W29" s="1">
-        <v>33.584525883449203</v>
+        <v>39.035358934567498</v>
       </c>
       <c r="X29" s="1">
-        <v>0.82963777180518805</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>80.629640404124601</v>
+        <v>249.872796797034</v>
       </c>
       <c r="Z29" s="1">
-        <v>1182.83518661678</v>
+        <v>455.32820025113102</v>
       </c>
       <c r="AA29" s="1">
-        <v>78.379778832673907</v>
+        <v>269.512872780507</v>
       </c>
       <c r="AB29" s="1">
-        <v>100.46137030836501</v>
+        <v>348.88761303374702</v>
       </c>
       <c r="AC29" s="1">
-        <v>7.2978088801741396</v>
+        <v>48.201717258895997</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="1"/>
-        <v>2030.7114668602696</v>
+        <f t="shared" si="2"/>
+        <v>2079.1254145556277</v>
       </c>
       <c r="AE29" s="1">
         <v>2115</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AF29" s="4">
         <f t="shared" si="0"/>
-        <v>84.288533139730362</v>
+        <v>35.874585444372315</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="1"/>
+        <v>35.874585444372315</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15" customHeight="1">
+    <row r="30" spans="1:33" ht="15" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>1.15259481670992</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>0.31335425923111099</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>0.39337442175766202</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>6.10883530911706</v>
+        <v>2.8605551684998098</v>
       </c>
       <c r="F30" s="1">
-        <v>3.3064176081325298</v>
+        <v>1.30140694687892</v>
       </c>
       <c r="G30" s="1">
-        <v>0.36520413925474698</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1.36780794813089</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>3.7116710192039499</v>
+        <v>2.68775540807684</v>
       </c>
       <c r="J30" s="1">
-        <v>8.5927445362429395</v>
+        <v>3.3755779052522099</v>
       </c>
       <c r="K30" s="1">
-        <v>23.783774706654899</v>
+        <v>2.36441646537715</v>
       </c>
       <c r="L30" s="1">
-        <v>53.329407585011403</v>
+        <v>0.65752221814429701</v>
       </c>
       <c r="M30" s="1">
-        <v>71.525408694041801</v>
+        <v>2.1680269999425001</v>
       </c>
       <c r="N30" s="1">
-        <v>7.1815995429607096</v>
+        <v>1.00042240683892</v>
       </c>
       <c r="O30" s="1">
-        <v>18.006198255877798</v>
+        <v>11.055012264695099</v>
       </c>
       <c r="P30" s="1">
-        <v>18.230543034139998</v>
+        <v>39.486105151191502</v>
       </c>
       <c r="Q30" s="1">
-        <v>12.8837886962614</v>
+        <v>30.326818664744899</v>
       </c>
       <c r="R30" s="1">
-        <v>25.902474603891299</v>
+        <v>78.287337040311797</v>
       </c>
       <c r="S30" s="1">
-        <v>121.904452180585</v>
+        <v>321.45826196064598</v>
       </c>
       <c r="T30" s="1">
-        <v>118.013575743969</v>
+        <v>350.78865051201802</v>
       </c>
       <c r="U30" s="1">
-        <v>27.757442094506999</v>
+        <v>15.055217831135</v>
       </c>
       <c r="V30" s="1">
-        <v>125.61646402285599</v>
+        <v>4.84686335799418</v>
       </c>
       <c r="W30" s="1">
-        <v>78.146524656463299</v>
+        <v>149.54849643832699</v>
       </c>
       <c r="X30" s="1">
-        <v>47.266718981634497</v>
+        <v>0.59492200872707801</v>
       </c>
       <c r="Y30" s="1">
-        <v>5.5002602382008599</v>
+        <v>39.4284896244965</v>
       </c>
       <c r="Z30" s="1">
-        <v>90.083496515112103</v>
+        <v>306.55854308278299</v>
       </c>
       <c r="AA30" s="1">
-        <v>1711.51983790282</v>
+        <v>833.16221657917401</v>
       </c>
       <c r="AB30" s="1">
-        <v>35.327461514643701</v>
+        <v>219.78598025806801</v>
       </c>
       <c r="AC30" s="1">
-        <v>73.656920504055705</v>
+        <v>312.36627460415502</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="1"/>
-        <v>2690.9483535314671</v>
+        <f t="shared" si="2"/>
+        <v>2729.1648728974774</v>
       </c>
       <c r="AE30" s="1">
         <v>2784</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AF30" s="4">
         <f t="shared" si="0"/>
-        <v>93.051646468532908</v>
+        <v>54.83512710252262</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="1"/>
+        <v>54.83512710252262</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15" customHeight="1">
+    <row r="31" spans="1:33" ht="15" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>0.46128402820958098</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>0.353499025518004</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>0.78263105144305201</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1.2925629312200499</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0.40250075808566299</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>-0.23985602105399501</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>3.77204825880627</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0.52333760028081699</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>1.1219497641376599</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>1.6157922993606799</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1.7223560897283701</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>0.58311808991658898</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>8.6178858154589193</v>
+        <v>1.5453398179304001</v>
       </c>
       <c r="O31" s="1">
-        <v>4.8938656324135197</v>
+        <v>2.4473138390092899</v>
       </c>
       <c r="P31" s="1">
-        <v>28.200925965858001</v>
+        <v>37.099543881835402</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.2256741208667101</v>
+        <v>3.5010489783529102</v>
       </c>
       <c r="R31" s="1">
-        <v>13.724895187852701</v>
+        <v>11.8140308724848</v>
       </c>
       <c r="S31" s="1">
-        <v>22.0642225678817</v>
+        <v>71.181875778815296</v>
       </c>
       <c r="T31" s="1">
-        <v>37.368665747711198</v>
+        <v>64.288812364198705</v>
       </c>
       <c r="U31" s="1">
-        <v>13.8884798432472</v>
+        <v>3.3588366558986902</v>
       </c>
       <c r="V31" s="1">
-        <v>12.943297718456201</v>
+        <v>1.40357046051101</v>
       </c>
       <c r="W31" s="1">
-        <v>77.895133841345299</v>
+        <v>37.248047348596202</v>
       </c>
       <c r="X31" s="1">
-        <v>0.25186340893234299</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>127.45697332666001</v>
+        <v>194.37594884615501</v>
       </c>
       <c r="Z31" s="1">
-        <v>97.696434886694306</v>
+        <v>244.889449637132</v>
       </c>
       <c r="AA31" s="1">
-        <v>100.91582453240601</v>
+        <v>251.701110643493</v>
       </c>
       <c r="AB31" s="1">
-        <v>1304.9632622387701</v>
+        <v>876.21729166420698</v>
       </c>
       <c r="AC31" s="1">
-        <v>29.0275886619388</v>
+        <v>91.857421822987007</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="1"/>
-        <v>1896.5262173721458</v>
+        <f t="shared" si="2"/>
+        <v>1892.9296426116066</v>
       </c>
       <c r="AE31" s="1">
         <v>1928</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AF31" s="4">
         <f t="shared" si="0"/>
-        <v>31.473782627854234</v>
+        <v>35.070357388393404</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="1"/>
+        <v>35.070357388393404</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15" customHeight="1">
+    <row r="32" spans="1:33" ht="15" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>0.44960551001803001</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>2.0920313142239402</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>0.242079968946499</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.29060834092740701</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1.97557554377051</v>
+        <v>1.0568816934042</v>
       </c>
       <c r="G32" s="1">
-        <v>0.489543561367554</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>1.0880377285904099</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>2.58618733174634</v>
+        <v>4.7957133262979301</v>
       </c>
       <c r="J32" s="1">
-        <v>4.2062323149942902</v>
+        <v>5.4463168771150601</v>
       </c>
       <c r="K32" s="1">
-        <v>11.315097762987399</v>
+        <v>3.0776101701180001</v>
       </c>
       <c r="L32" s="1">
-        <v>46.658449633131497</v>
+        <v>0.87605115536311395</v>
       </c>
       <c r="M32" s="1">
-        <v>122.75934585716701</v>
+        <v>1.05214213392874</v>
       </c>
       <c r="N32" s="1">
-        <v>1.0681693577179801</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>3.7048660384586198</v>
+        <v>2.9819652837317201</v>
       </c>
       <c r="P32" s="1">
-        <v>1.8714988811772399</v>
+        <v>5.9441700083794302</v>
       </c>
       <c r="Q32" s="1">
-        <v>8.5314458270920692</v>
+        <v>24.882364683286202</v>
       </c>
       <c r="R32" s="1">
-        <v>23.383283758070299</v>
+        <v>118.438902012928</v>
       </c>
       <c r="S32" s="1">
-        <v>13.9610301794736</v>
+        <v>98.789077020866003</v>
       </c>
       <c r="T32" s="1">
-        <v>75.596308990181797</v>
+        <v>294.16826396152697</v>
       </c>
       <c r="U32" s="1">
-        <v>12.3012387770603</v>
+        <v>21.566793232039</v>
       </c>
       <c r="V32" s="1">
-        <v>26.7589097923229</v>
+        <v>8.0036905400957803</v>
       </c>
       <c r="W32" s="1">
-        <v>82.240878401645702</v>
+        <v>237.79680188208701</v>
       </c>
       <c r="X32" s="1">
-        <v>180.397310976135</v>
+        <v>1.3838914895421901</v>
       </c>
       <c r="Y32" s="1">
-        <v>2.5164221430486999</v>
+        <v>5.1823095490831301</v>
       </c>
       <c r="Z32" s="1">
-        <v>3.1304207528091701</v>
+        <v>49.166771083328399</v>
       </c>
       <c r="AA32" s="1">
-        <v>70.174429676919203</v>
+        <v>315.949448374469</v>
       </c>
       <c r="AB32" s="1">
-        <v>4.0642303847780497</v>
+        <v>35.722726235185299</v>
       </c>
       <c r="AC32" s="1">
-        <v>1018.8971316161</v>
+        <v>491.91371192005403</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="1"/>
-        <v>1722.7503704208616</v>
+        <f t="shared" si="2"/>
+        <v>1728.1956026328294</v>
       </c>
       <c r="AE32" s="1">
         <v>1757</v>
       </c>
-      <c r="AF32" s="5">
+      <c r="AF32" s="4">
         <f t="shared" si="0"/>
-        <v>34.2496295791384</v>
+        <v>28.804397367170623</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="1"/>
+        <v>28.804397367170623</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1">
+    <row r="33" spans="1:33" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1">
         <f>SUM(B5:B32)</f>
-        <v>663.29726366952184</v>
+        <v>742.87387554841678</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ref="C33:AC33" si="2">SUM(C5:C32)</f>
-        <v>1715.9507603718564</v>
+        <f t="shared" ref="C33:AC33" si="3">SUM(C5:C32)</f>
+        <v>1672.8511417697275</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
-        <v>2806.9356264446628</v>
+        <f t="shared" si="3"/>
+        <v>2895.8648677673286</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
-        <v>2475.2635392235202</v>
+        <f t="shared" si="3"/>
+        <v>2500.9726656415087</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
-        <v>1870.0527331678686</v>
+        <f t="shared" si="3"/>
+        <v>1894.7154253438982</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="2"/>
-        <v>2858.5932503634085</v>
+        <f t="shared" si="3"/>
+        <v>2768.8388182845074</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>1849.7367457230268</v>
+        <f t="shared" si="3"/>
+        <v>1972.403550801662</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="2"/>
-        <v>3464.9052610605313</v>
+        <f t="shared" si="3"/>
+        <v>3458.6656076019044</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
-        <v>3530.5200986001996</v>
+        <f t="shared" si="3"/>
+        <v>3586.1793306021259</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
-        <v>3288.7523266912435</v>
+        <f t="shared" si="3"/>
+        <v>3342.9259544746874</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="2"/>
-        <v>3820.0311969876248</v>
+        <f t="shared" si="3"/>
+        <v>3881.7941492320788</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="2"/>
-        <v>3157.3682386374085</v>
+        <f t="shared" si="3"/>
+        <v>3106.80076509428</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="2"/>
-        <v>1706.6492078928</v>
+        <f t="shared" si="3"/>
+        <v>1829.0909328449789</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="2"/>
-        <v>2109.0214110029146</v>
+        <f t="shared" si="3"/>
+        <v>2127.7937715521139</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="2"/>
-        <v>2616.5819367697013</v>
+        <f t="shared" si="3"/>
+        <v>2668.1567570769303</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="2"/>
-        <v>2269.6009624207677</v>
+        <f t="shared" si="3"/>
+        <v>2366.9712979724118</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="2"/>
-        <v>6076.7426698137406</v>
+        <f t="shared" si="3"/>
+        <v>6263.0184318675738</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="2"/>
-        <v>4298.0377474802654</v>
+        <f t="shared" si="3"/>
+        <v>4510.2608331436013</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="2"/>
-        <v>3806.1178738816407</v>
+        <f t="shared" si="3"/>
+        <v>3835.698359461981</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="2"/>
-        <v>1760.3213506143031</v>
+        <f t="shared" si="3"/>
+        <v>1771.3338281194046</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="2"/>
-        <v>2302.2039849505836</v>
+        <f t="shared" si="3"/>
+        <v>2417.5453895792598</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="2"/>
-        <v>2607.6341784498727</v>
+        <f t="shared" si="3"/>
+        <v>2549.8215673755576</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="2"/>
-        <v>2729.4336417924028</v>
+        <f t="shared" si="3"/>
+        <v>2595.4845959001327</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="2"/>
-        <v>1894.0662742606912</v>
+        <f t="shared" si="3"/>
+        <v>1915.7411432580939</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" si="2"/>
-        <v>2034.6743437705488</v>
+        <f t="shared" si="3"/>
+        <v>2068.4567657790321</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="2"/>
-        <v>2685.2981807068363</v>
+        <f t="shared" si="3"/>
+        <v>2760.0563832979965</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="2"/>
-        <v>1837.0462168970448</v>
+        <f t="shared" si="3"/>
+        <v>1883.8291679344229</v>
       </c>
       <c r="AC33" s="1">
-        <f t="shared" si="2"/>
-        <v>1662.9077350614182</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>1704.5179618292113</v>
+      </c>
+      <c r="AF33" s="6">
+        <f>SUM(AG5:AG32)</f>
+        <v>1431.5724008129916</v>
+      </c>
+      <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1">
+    <row r="34" spans="1:33" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3621,122 +3736,241 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:33" ht="15" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="5">
-        <f>B34-B33</f>
-        <v>73.70273633047816</v>
-      </c>
-      <c r="C35" s="5">
-        <f>C34-C33</f>
-        <v>-57.950760371856404</v>
-      </c>
-      <c r="D35" s="5">
-        <f>D34-D33</f>
-        <v>97.06437355533717</v>
-      </c>
-      <c r="E35" s="5">
-        <f>E34-E33</f>
-        <v>26.736460776479817</v>
-      </c>
-      <c r="F35" s="5">
-        <f>F34-F33</f>
-        <v>6.9472668321313904</v>
-      </c>
-      <c r="G35" s="5">
-        <f>G34-G33</f>
-        <v>-92.593250363408515</v>
-      </c>
-      <c r="H35" s="5">
-        <f>H34-H33</f>
-        <v>116.26325427697316</v>
-      </c>
-      <c r="I35" s="5">
-        <f>I34-I33</f>
-        <v>-12.905261060531302</v>
-      </c>
-      <c r="J35" s="5">
-        <f>J34-J33</f>
-        <v>45.479901399800383</v>
-      </c>
-      <c r="K35" s="5">
-        <f>K34-K33</f>
-        <v>54.247673308756475</v>
-      </c>
-      <c r="L35" s="5">
-        <f>L34-L33</f>
-        <v>62.968803012375247</v>
-      </c>
-      <c r="M35" s="5">
-        <f>M34-M33</f>
-        <v>-67.368238637408467</v>
-      </c>
-      <c r="N35" s="5">
-        <f>N34-N33</f>
-        <v>115.35079210720005</v>
-      </c>
-      <c r="O35" s="5">
-        <f>O34-O33</f>
-        <v>12.978588997085353</v>
-      </c>
-      <c r="P35" s="5">
-        <f>P34-P33</f>
-        <v>55.418063230298685</v>
-      </c>
-      <c r="Q35" s="5">
-        <f>Q34-Q33</f>
-        <v>72.399037579232299</v>
-      </c>
-      <c r="R35" s="5">
-        <f>R34-R33</f>
-        <v>197.25733018625942</v>
-      </c>
-      <c r="S35" s="5">
-        <f>S34-S33</f>
-        <v>221.96225251973465</v>
-      </c>
-      <c r="T35" s="5">
-        <f>T34-T33</f>
-        <v>19.882126118359338</v>
-      </c>
-      <c r="U35" s="5">
-        <f>U34-U33</f>
-        <v>-17.321350614303128</v>
-      </c>
-      <c r="V35" s="5">
-        <f>V34-V33</f>
-        <v>114.79601504941638</v>
-      </c>
-      <c r="W35" s="5">
-        <f>W34-W33</f>
-        <v>-57.634178449872707</v>
-      </c>
-      <c r="X35" s="5">
-        <f>X34-X33</f>
-        <v>-137.4336417924028</v>
-      </c>
-      <c r="Y35" s="5">
-        <f>Y34-Y33</f>
-        <v>13.933725739308784</v>
-      </c>
-      <c r="Z35" s="5">
-        <f>Z34-Z33</f>
-        <v>16.32565622945117</v>
-      </c>
-      <c r="AA35" s="5">
-        <f>AA34-AA33</f>
-        <v>67.70181929316368</v>
-      </c>
-      <c r="AB35" s="5">
-        <f>AB34-AB33</f>
-        <v>50.953783102955185</v>
-      </c>
-      <c r="AC35" s="5">
-        <f>AC34-AC33</f>
-        <v>40.09226493858182</v>
-      </c>
+      <c r="B35" s="4">
+        <f t="shared" ref="B35:AC35" si="4">B34-B33</f>
+        <v>-5.8738755484167768</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="4"/>
+        <v>-14.851141769727519</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1351322326713671</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0273343584913164</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="4"/>
+        <v>-17.715425343898232</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.838818284507397</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="4"/>
+        <v>-6.4035508016620497</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="4"/>
+        <v>-6.6656076019044121</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="4"/>
+        <v>-10.179330602125901</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="4"/>
+        <v>7.4045525312612881E-2</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2058507679212198</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="4"/>
+        <v>-16.800765094279996</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.0909328449788518</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.7937715521138671</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="4"/>
+        <v>3.843242923069738</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="4"/>
+        <v>-24.971297972411776</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="4"/>
+        <v>10.981568132426219</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="4"/>
+        <v>9.7391668563986968</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="4"/>
+        <v>-9.6983594619809992</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28.333828119404643</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.54538957925979048</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17843262444239372</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4845959001327174</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.7411432580938708</v>
+      </c>
+      <c r="Z35" s="4">
+        <f t="shared" si="4"/>
+        <v>-17.456765779032139</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.05638329799649</v>
+      </c>
+      <c r="AB35" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1708320655770876</v>
+      </c>
+      <c r="AC35" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.5179618292113446</v>
+      </c>
+      <c r="AD35" s="6">
+        <f>SUM(B36:AC36)</f>
+        <v>234.37455012744942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="B36" s="1">
+        <f>ABS(B35)</f>
+        <v>5.8738755484167768</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:AC36" si="5">ABS(C35)</f>
+        <v>14.851141769727519</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="5"/>
+        <v>8.1351322326713671</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0273343584913164</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="5"/>
+        <v>17.715425343898232</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="5"/>
+        <v>2.838818284507397</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4035508016620497</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6656076019044121</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="5"/>
+        <v>10.179330602125901</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="5"/>
+        <v>7.4045525312612881E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2058507679212198</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="5"/>
+        <v>16.800765094279996</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="5"/>
+        <v>7.0909328449788518</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="5"/>
+        <v>5.7937715521138671</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="5"/>
+        <v>3.843242923069738</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="5"/>
+        <v>24.971297972411776</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="5"/>
+        <v>10.981568132426219</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="5"/>
+        <v>9.7391668563986968</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="5"/>
+        <v>9.6983594619809992</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="5"/>
+        <v>28.333828119404643</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54538957925979048</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17843262444239372</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4845959001327174</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="5"/>
+        <v>7.7411432580938708</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="5"/>
+        <v>17.456765779032139</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="5"/>
+        <v>7.05638329799649</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1708320655770876</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5179618292113446</v>
+      </c>
+      <c r="AD36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
